--- a/Documentos/Tabela de risco.xlsx
+++ b/Documentos/Tabela de risco.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{538DC4D1-D34A-4213-B2E4-456028C51636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinys\OneDrive\Área de Trabalho\BandTec\Git Hub\Projeto Git\Amonimous\Documentos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244D9A95-5B0C-468D-8FC9-43F67676D153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="2010" windowWidth="25560" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela de risco 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha de Riscos" sheetId="2" r:id="rId2"/>
+    <sheet name="Análise de Riscos" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -18,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -108,13 +114,231 @@
   </si>
   <si>
     <t>Pesquisar mais o conteúdo pedido e se aprofundar na medida do possível.</t>
+  </si>
+  <si>
+    <t>Solução</t>
+  </si>
+  <si>
+    <t>Ação</t>
+  </si>
+  <si>
+    <t>Fator de risco</t>
+  </si>
+  <si>
+    <r>
+      <t>Probabilidade (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Berlin Sans FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Berlin Sans FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Impacto (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Berlin Sans FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Berlin Sans FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>• Fator de Risco ( Probabilidade x Impacto )</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• Probabilidade do Risco ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Berlin Sans FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>1 - Baixa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Berlin Sans FB"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Berlin Sans FB"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2 - Média </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Berlin Sans FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>3 - Alta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Berlin Sans FB"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <t>• Ação ( Mitigar, Evitar, Eliminar )</t>
+  </si>
+  <si>
+    <t>Impacto</t>
+  </si>
+  <si>
+    <r>
+      <t>• Impacto do Risco (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Berlin Sans FB"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1 - Baixo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Berlin Sans FB"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Berlin Sans FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>2 - Médio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Berlin Sans FB"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Berlin Sans FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>3 - Alto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Berlin Sans FB"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <t>Probabilidade</t>
+  </si>
+  <si>
+    <t>Alto - 3</t>
+  </si>
+  <si>
+    <t>Médio - 2</t>
+  </si>
+  <si>
+    <t>Baixo - 1</t>
+  </si>
+  <si>
+    <t>Pouco Provável - 1</t>
+  </si>
+  <si>
+    <t>Provável - 2</t>
+  </si>
+  <si>
+    <t>Muito Provável - 3</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>Análise de Riscos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,16 +346,119 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Berlin Sans FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Berlin Sans FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Berlin Sans FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Berlin Sans FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Berlin Sans FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Berlin Sans FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Berlin Sans FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="7" tint="0.59999389629810485"/>
+      <name val="Berlin Sans FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Berlin Sans FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Berlin Sans FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -139,11 +466,165 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -156,6 +637,182 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -163,6 +820,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFAA99"/>
+      <color rgb="FFFFB3B5"/>
+      <color rgb="FFFF7578"/>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -174,8 +839,63 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>172132</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>181208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D2B0FD-0F56-46DC-990E-F4E5E0ED2DDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10506075" y="2819400"/>
+          <a:ext cx="4887007" cy="1667108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -471,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1"/>
@@ -488,7 +1208,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15"/>
-    <row r="2" spans="1:7" ht="60" customHeight="1">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E10" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E9" si="0">C4*D4</f>
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -691,7 +1411,495 @@
     <row r="15" spans="1:7" ht="15"/>
     <row r="16" spans="1:7" ht="15"/>
     <row r="17" ht="15"/>
+    <row r="18" ht="15"/>
+    <row r="19" ht="15"/>
+    <row r="20" ht="15"/>
+    <row r="21" ht="15"/>
+    <row r="22" ht="15"/>
+    <row r="23" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE0E7F4-346E-4998-AE5E-F69A4D090B64}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="89.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:8" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="24" customHeight="1">
+      <c r="B3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="19">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10">
+        <f>D3*E3</f>
+        <v>3</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="24" customHeight="1">
+      <c r="B4" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="24">
+        <v>2</v>
+      </c>
+      <c r="E4" s="24">
+        <v>2</v>
+      </c>
+      <c r="F4" s="25">
+        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
+        <v>4</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="24" customHeight="1">
+      <c r="B5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="19">
+        <v>2</v>
+      </c>
+      <c r="E5" s="19">
+        <v>2</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="24" customHeight="1">
+      <c r="B6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="24">
+        <v>3</v>
+      </c>
+      <c r="E6" s="24">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="24" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>3</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="24" customHeight="1">
+      <c r="B8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="24">
+        <v>2</v>
+      </c>
+      <c r="E8" s="24">
+        <v>3</v>
+      </c>
+      <c r="F8" s="25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="24" customHeight="1" thickBot="1">
+      <c r="B9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="20">
+        <v>3</v>
+      </c>
+      <c r="E9" s="21">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1">
+      <c r="B12" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1">
+      <c r="B13" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1">
+      <c r="B14" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D121F3-BE77-4A50-A557-FE0A6FDE5BB0}">
+  <dimension ref="B2:Q9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+    </row>
+    <row r="3" spans="2:17" ht="27" customHeight="1" thickBot="1">
+      <c r="B3" s="36"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="67">
+        <v>3</v>
+      </c>
+      <c r="E4" s="64">
+        <v>6</v>
+      </c>
+      <c r="F4" s="62">
+        <v>9</v>
+      </c>
+      <c r="I4" s="36"/>
+      <c r="J4" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="54"/>
+      <c r="C5" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="68">
+        <v>2</v>
+      </c>
+      <c r="E5" s="65">
+        <v>4</v>
+      </c>
+      <c r="F5" s="63">
+        <v>6</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="8">
+        <v>3</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="45"/>
+    </row>
+    <row r="6" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B6" s="54"/>
+      <c r="C6" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="70">
+        <v>1</v>
+      </c>
+      <c r="E6" s="69">
+        <v>2</v>
+      </c>
+      <c r="F6" s="66">
+        <v>3</v>
+      </c>
+      <c r="I6" s="54"/>
+      <c r="J6" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7">
+        <v>4</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="38"/>
+    </row>
+    <row r="7" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="54"/>
+      <c r="J7" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
+    </row>
+    <row r="8" spans="2:17" ht="29.25" customHeight="1">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="39"/>
+      <c r="M8" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="34"/>
+    </row>
+    <row r="9" spans="2:17" ht="18">
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D8:F8"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>